--- a/Book.xlsx
+++ b/Book.xlsx
@@ -262,7 +262,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -286,6 +286,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1259,7 +1301,7 @@
         <v>21</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3"/>
     </row>
